--- a/Data/fs_XLS/qunar_test.xlsx
+++ b/Data/fs_XLS/qunar_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>apiname</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>remember</t>
+  </si>
+  <si>
+    <t>stauts_loginx</t>
   </si>
   <si>
     <t>13511035140</t>
@@ -139,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -176,6 +179,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -184,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,9 +242,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,19 +273,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -228,22 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -251,55 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,181 +329,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +514,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,71 +614,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,145 +622,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1104,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1162,8 +1165,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1182,7 +1185,7 @@
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,59 +1198,68 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1255,25 +1267,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1281,25 +1293,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1307,25 +1319,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1333,25 +1345,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1"/>

--- a/Data/fs_XLS/qunar_test.xlsx
+++ b/Data/fs_XLS/qunar_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,23 +172,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,52 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,14 +242,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,10 +265,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,16 +307,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,25 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +377,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,43 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,61 +485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +514,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,21 +557,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -564,24 +567,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,17 +591,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,16 +634,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,115 +652,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,8 +1109,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1162,7 +1156,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://user.qunar.com/passport/loginx.jsp"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://user.qunar.com/passport/loginx.jsp" tooltip="https://user.qunar.com/passport/loginx.jsp"/>
     <hyperlink ref="B3" r:id="rId2" display="http://l-tts9.vc.beta.cn6.qunar.com/supplier/traffic/add_traffic.qunar"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1175,7 +1169,7 @@
   <sheetPr/>
   <dimension ref="A1:H16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
